--- a/docs/tshes_packet.xlsx
+++ b/docs/tshes_packet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khrovat\from_SAMS_NDC\sams\SAMS_Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khrovat\Documents\GitHub\tshcal\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>Byte</t>
   </si>
@@ -89,9 +89,6 @@
     <t>num_samples</t>
   </si>
   <si>
-    <t>acceleration_data</t>
-  </si>
-  <si>
     <t>Incrementing counter of number of TshesAccelPacket(s) sent.</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>An array of DataSize bytes, which is the data part of the message.</t>
   </si>
   <si>
-    <t>* The maximum number of samples in a packet is 512 samples (6144 bytes). Therefore the maximum size of TshesAccelPacket is 36+6144 = 6180.</t>
-  </si>
-  <si>
     <t>byte, char</t>
   </si>
   <si>
@@ -255,13 +249,79 @@
   </si>
   <si>
     <t>Second sync byte is always hex D3 [0xd3].</t>
+  </si>
+  <si>
+    <t>* The maximum number of samples in a packet is 512 samples (8192 bytes). Therefore the maximum size of TshesAccelPacket is 36+8192=8228.</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Digital IO status at time sample was taken.</t>
+  </si>
+  <si>
+    <t>Preamble</t>
+  </si>
+  <si>
+    <t>tshes message</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>0:36</t>
+  </si>
+  <si>
+    <t>accel_data</t>
+  </si>
+  <si>
+    <t>36:</t>
+  </si>
+  <si>
+    <t>TshesAccelPacket</t>
+  </si>
+  <si>
+    <t>EXAMPLE</t>
+  </si>
+  <si>
+    <t>py_idx</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>number of bytes…</t>
+  </si>
+  <si>
+    <t>received by socket</t>
+  </si>
+  <si>
+    <t>after Prefix subtracted</t>
+  </si>
+  <si>
+    <t>after Preamble subtracted</t>
+  </si>
+  <si>
+    <t>left over in this initial socket receipt</t>
+  </si>
+  <si>
+    <t>in deficit (needed to complete TshesAccelPacket's accel_data)</t>
+  </si>
+  <si>
+    <t>used to get largest number of complete AccelSample records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,16 +337,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -294,11 +374,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +559,116 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,196 +949,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5" customWidth="1"/>
+    <col min="10" max="13" width="3.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="40" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="37" customWidth="1"/>
+    <col min="16" max="16" width="3.140625" style="43" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="G2" s="4"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="4"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="25"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="32">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="32">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
+      <c r="R14" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
+      <c r="N15" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="R15" s="52">
+        <v>1448</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="21">
+        <v>44</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
+      <c r="N16" s="42">
+        <v>0</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="45">
+        <f>N16+I16</f>
+        <v>44</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="52">
+        <f>R15-I16</f>
+        <v>1404</v>
+      </c>
+      <c r="S16" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="22"/>
+      <c r="H17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="24">
+        <v>4132</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="N17" s="42">
+        <f>P16</f>
+        <v>44</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
+    </row>
+    <row r="18" spans="7:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="42"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="27">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="N19" s="42">
+        <f>N17</f>
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="O19" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="45">
+        <f>N19+I19</f>
+        <v>80</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="52">
+        <f>R16-I19</f>
+        <v>1368</v>
+      </c>
+      <c r="S19" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="22"/>
+      <c r="H20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="24">
+        <f>256*16</f>
+        <v>4096</v>
+      </c>
+      <c r="N20" s="42">
+        <f>P19</f>
+        <v>80</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="52">
+        <f>16*T20</f>
+        <v>1360</v>
+      </c>
+      <c r="S20" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="T20" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R21" s="52">
+        <f>R19-(T20*16)</f>
+        <v>8</v>
+      </c>
+      <c r="S21" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="R22" s="54">
+        <f>T22*16 - R21</f>
+        <v>2728</v>
+      </c>
+      <c r="S22" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="T22" s="3">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="N15:P15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +1416,14 @@
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -831,8 +1436,9 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -843,10 +1449,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -857,10 +1463,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -871,10 +1477,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -885,10 +1491,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
@@ -899,10 +1505,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
@@ -910,19 +1516,42 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="1">
+        <v>36</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="1">
+        <f>256*16</f>
+        <v>4096</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -934,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +1572,7 @@
     <col min="1" max="1" width="9.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -962,48 +1591,59 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -1041,12 +1681,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1054,7 +1694,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1062,7 +1702,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1070,7 +1710,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -1078,7 +1718,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -1086,7 +1726,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5">
         <v>8</v>

--- a/docs/tshes_packet.xlsx
+++ b/docs/tshes_packet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="838"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="tshes message" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Byte</t>
   </si>
@@ -275,15 +275,9 @@
     <t>Prefix</t>
   </si>
   <si>
-    <t>0:36</t>
-  </si>
-  <si>
     <t>accel_data</t>
   </si>
   <si>
-    <t>36:</t>
-  </si>
-  <si>
     <t>TshesAccelPacket</t>
   </si>
   <si>
@@ -296,32 +290,44 @@
     <t>:</t>
   </si>
   <si>
-    <t>number of bytes…</t>
-  </si>
-  <si>
-    <t>received by socket</t>
-  </si>
-  <si>
-    <t>after Prefix subtracted</t>
-  </si>
-  <si>
     <t>after Preamble subtracted</t>
   </si>
   <si>
-    <t>left over in this initial socket receipt</t>
-  </si>
-  <si>
     <t>in deficit (needed to complete TshesAccelPacket's accel_data)</t>
   </si>
   <si>
-    <t>used to get largest number of complete AccelSample records</t>
+    <t>after Prefix subtracted (call this "TAP remainder")</t>
+  </si>
+  <si>
+    <t>max # whole AccelSample records contained in "TAP remainder"</t>
+  </si>
+  <si>
+    <t>number of bytes for a typical example…</t>
+  </si>
+  <si>
+    <t>left over from initial socket receipt</t>
+  </si>
+  <si>
+    <t>initial socket receipt</t>
+  </si>
+  <si>
+    <t>is one whole AccelSample record</t>
+  </si>
+  <si>
+    <t># whole records</t>
+  </si>
+  <si>
+    <t>&lt;&lt; not whole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +347,38 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -466,19 +504,50 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -487,30 +556,116 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="dotted">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
       </right>
       <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -520,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,30 +720,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -598,12 +735,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -641,9 +772,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -663,12 +791,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,453 +1159,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T22"/>
+  <dimension ref="B1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="9" style="5" customWidth="1"/>
-    <col min="10" max="13" width="3.140625" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" style="37" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="43" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="31" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="34" customWidth="1"/>
+    <col min="20" max="20" width="2" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" customWidth="1"/>
+    <col min="22" max="22" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="62" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="14"/>
       <c r="I2" s="4"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="25"/>
-      <c r="T2" s="16"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="32">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="19"/>
+      <c r="W2" s="63"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="24">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="32">
+      <c r="F3" s="38"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="49" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="F9" s="38"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+      <c r="F11" s="38"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="26" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I12" s="17"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F13" s="41"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="41"/>
       <c r="G14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="U14" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="50"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F15" s="41"/>
+      <c r="I15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="Q15" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="75"/>
+      <c r="S15" s="76"/>
+      <c r="U15" s="51">
+        <v>1448</v>
+      </c>
+      <c r="V15" s="52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="42"/>
+      <c r="G16" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="70">
+        <v>44</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="43">
+        <v>0</v>
+      </c>
+      <c r="R16" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
-      <c r="R14" s="50" t="s">
+      <c r="S16" s="45">
+        <f>Q16+I16</f>
+        <v>44</v>
+      </c>
+      <c r="T16" s="10"/>
+      <c r="U16" s="51">
+        <f>U15-I16</f>
+        <v>1404</v>
+      </c>
+      <c r="V16" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="7:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="72"/>
+      <c r="H17" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="68">
+        <v>4132</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="43">
+        <f>S16</f>
+        <v>44</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="45"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="54"/>
+    </row>
+    <row r="18" spans="7:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="37"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="7:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="37"/>
+      <c r="O19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="53">
+        <v>16</v>
+      </c>
+      <c r="V19" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="66">
+        <v>36</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="43">
+        <f>Q17</f>
+        <v>44</v>
+      </c>
+      <c r="R20" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" s="45">
+        <f>Q20+O20</f>
+        <v>80</v>
+      </c>
+      <c r="T20" s="10"/>
+      <c r="U20" s="51">
+        <f>U16-O20</f>
+        <v>1368</v>
+      </c>
+      <c r="V20" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="N15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="R15" s="52">
-        <v>1448</v>
-      </c>
-      <c r="S15" s="53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G16" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="21">
-        <v>44</v>
-      </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="N16" s="42">
-        <v>0</v>
-      </c>
-      <c r="O16" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="45">
-        <f>N16+I16</f>
-        <v>44</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="52">
-        <f>R15-I16</f>
-        <v>1404</v>
-      </c>
-      <c r="S16" s="53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="22"/>
-      <c r="H17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="24">
-        <v>4132</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="N17" s="42">
-        <f>P16</f>
-        <v>44</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
-    </row>
-    <row r="18" spans="7:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="42"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G19" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="27">
-        <v>36</v>
-      </c>
-      <c r="N19" s="42">
-        <f>N17</f>
-        <v>44</v>
-      </c>
-      <c r="O19" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="45">
-        <f>N19+I19</f>
-        <v>80</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="52">
-        <f>R16-I19</f>
-        <v>1368</v>
-      </c>
-      <c r="S19" s="53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="22"/>
-      <c r="H20" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="24">
+      <c r="W20" s="62">
+        <f>U20/U19</f>
+        <v>85.5</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="68">
         <f>256*16</f>
         <v>4096</v>
       </c>
-      <c r="N20" s="42">
-        <f>P19</f>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="46">
+        <f>S20</f>
         <v>80</v>
       </c>
-      <c r="O20" s="37" t="s">
+      <c r="R21" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" s="48"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="51">
+        <f>FLOOR(U20, 16)</f>
+        <v>1360</v>
+      </c>
+      <c r="V21" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="W21" s="36">
+        <f>U21/U19</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f>O21+O20</f>
+        <v>4132</v>
+      </c>
+      <c r="U22" s="51">
+        <f>U20-(W21*16)</f>
+        <v>8</v>
+      </c>
+      <c r="V22" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="W22" s="62">
+        <f>U22/U19</f>
+        <v>0.5</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="7:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="55">
+        <f>W23*16 - U22</f>
+        <v>2728</v>
+      </c>
+      <c r="V23" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="52">
-        <f>16*T20</f>
-        <v>1360</v>
-      </c>
-      <c r="S20" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="T20" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="R21" s="52">
-        <f>R19-(T20*16)</f>
-        <v>8</v>
-      </c>
-      <c r="S21" s="53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="R22" s="54">
-        <f>T22*16 - R21</f>
-        <v>2728</v>
-      </c>
-      <c r="S22" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="W23" s="36">
+        <f>256-W21</f>
         <v>171</v>
       </c>
     </row>
+    <row r="24" spans="7:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="Q15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1404,154 +1679,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E4" s="60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="1">
-        <v>36</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="1">
-        <f>256*16</f>
-        <v>4096</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>84</v>
-      </c>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
